--- a/html/resources/whichRole.xlsx
+++ b/html/resources/whichRole.xlsx
@@ -44,58 +44,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>What industry are the business people in?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is being negotiated and how much money is at stake?</t>
-    </r>
-  </si>
-  <si>
-    <t>What is the response to the proposed deal?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What comes about from the business proposal?</t>
-    </r>
-  </si>
-  <si>
-    <t>Is the deal fair?</t>
-  </si>
-  <si>
-    <t>How long does it take to make the deal?</t>
-  </si>
-  <si>
-    <t>Business Reporter</t>
-  </si>
-  <si>
-    <t>jobphotos/business_reporter.jpg</t>
-  </si>
-  <si>
-    <t>How is the restaurant decorated?</t>
-  </si>
-  <si>
-    <t>What are the menus like?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What do the clients order?</t>
+      <t>What are the job titles of both of the business people?</t>
     </r>
     <r>
       <rPr>
@@ -108,28 +57,13 @@
     </r>
   </si>
   <si>
-    <t>How do the clients like the food?</t>
-  </si>
-  <si>
-    <t>How old is the waiter?</t>
-  </si>
-  <si>
-    <t>What meal is being served?</t>
-  </si>
-  <si>
-    <t>Restaurant Critic</t>
-  </si>
-  <si>
-    <t>jobphotos/restaurant_critic.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Who notices whom first and why do they notice the other?</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How much money is at stake in the initial offer made?</t>
     </r>
     <r>
       <rPr>
@@ -142,13 +76,44 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the couple start talking?</t>
+    <t xml:space="preserve">What is the name of the other industry competitor? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>With what gesture do the business partners secure the deal?</t>
+    </r>
+  </si>
+  <si>
+    <t>Is the deal fair?</t>
+  </si>
+  <si>
+    <t>How long does it take to make the deal?</t>
+  </si>
+  <si>
+    <t>Business Reporter</t>
+  </si>
+  <si>
+    <t>jobphotos/business_reporter.jpg</t>
+  </si>
+  <si>
+    <t>How is the restaurant decorated?</t>
+  </si>
+  <si>
+    <t>What are the menus like?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What do the clients order?</t>
     </r>
     <r>
       <rPr>
@@ -161,13 +126,58 @@
     </r>
   </si>
   <si>
+    <t>How do the clients like the food?</t>
+  </si>
+  <si>
+    <t>How old is the waiter?</t>
+  </si>
+  <si>
+    <t>What meal is being served?</t>
+  </si>
+  <si>
+    <t>Restaurant Critic</t>
+  </si>
+  <si>
+    <t>jobphotos/restaurant_critic.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What object is the initiator of the interaction holding when he/she first notices the other person?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial question that begins the conversation between the couple?</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Which of the people proposes going on an actual date and what do they propose?</t>
+      <t>When will be the next time the couple meets and for what occasion?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What time is it when the couple parts?</t>
     </r>
     <r>
       <rPr>
@@ -180,13 +190,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Who leaves first and why do they have to go?</t>
+    <t>Is the couple going to get married?</t>
+  </si>
+  <si>
+    <t>Who shows more interest?</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>jobphotos/matchmaker.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how many years has the couple been dating?</t>
     </r>
     <r>
       <rPr>
@@ -199,25 +221,17 @@
     </r>
   </si>
   <si>
-    <t>Is the couple going to get married?</t>
-  </si>
-  <si>
-    <t>Who shows more interest?</t>
-  </si>
-  <si>
-    <t>Matchmaker</t>
-  </si>
-  <si>
-    <t>jobphotos/matchmaker.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the person who proposed feel before proposing?</t>
+    <t xml:space="preserve">How many diamonds are on the ring and what is the diamond color?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>In/on what item is the ring presented?</t>
     </r>
     <r>
       <rPr>
@@ -230,17 +244,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What is the ring like?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Does anyone help with the proposal?</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Who does the new fiancee text first?</t>
     </r>
     <r>
       <rPr>
@@ -253,13 +263,25 @@
     </r>
   </si>
   <si>
+    <t>Is anyone taking pictures of the proposal?</t>
+  </si>
+  <si>
+    <t>How long does the proposal take?</t>
+  </si>
+  <si>
+    <t>Wedding Planner</t>
+  </si>
+  <si>
+    <t>jobphotos/weddingplanner.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>Who witnessed the “yes”?</t>
+      <t>When the clients arrive at the airport, how much time do they have until their flight departs?</t>
     </r>
     <r>
       <rPr>
@@ -272,16 +294,14 @@
     </r>
   </si>
   <si>
-    <t>Is anyone taking pictures of the proposal?</t>
-  </si>
-  <si>
-    <t>How long does the proposal take?</t>
-  </si>
-  <si>
-    <t>Wedding Planner</t>
-  </si>
-  <si>
-    <t>jobphotos/weddingplanner.jpg</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the reason for the hold-up at security?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -290,7 +310,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>When the travelers arrive at the airport, how much time do they have to go through the airport?</t>
+      <t>Toward which gate are the clients walking?</t>
     </r>
     <r>
       <rPr>
@@ -303,13 +323,37 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What do the travelers have to do at security to comply with the security check?</t>
+    <t xml:space="preserve">What section and seat does each client sit in on the plane?
+</t>
+  </si>
+  <si>
+    <t>Are the security guards friendly or rude?</t>
+  </si>
+  <si>
+    <t>Are the airport restrooms clean?</t>
+  </si>
+  <si>
+    <t>Airport Customer Experience Manager</t>
+  </si>
+  <si>
+    <t>jobphotos/acem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the grocery store like upon entering?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What items do the clients pick out?
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>How many checkout lanes are open and which one do the clients step into?</t>
     </r>
     <r>
       <rPr>
@@ -328,7 +372,7 @@
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How do the travelers feel when they are  walking to the gates?</t>
+      <t>How much are the groceries and what method of payment do the clients use?</t>
     </r>
     <r>
       <rPr>
@@ -341,36 +385,19 @@
     </r>
   </si>
   <si>
-    <t>Where does each traveler sit on the plane?</t>
-  </si>
-  <si>
-    <t>Are the security guards friendly or rude?</t>
-  </si>
-  <si>
-    <t>Are the airport restrooms clean?</t>
-  </si>
-  <si>
-    <t>Airport Customer Experience Manager</t>
-  </si>
-  <si>
-    <t>jobphotos/acem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the grocery store like upon entering?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What items do the clients pick out?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How is the checkout line and how long do the clients wait in line?</t>
+    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
+  </si>
+  <si>
+    <t>What type of grocery bags do the clients use?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>Grocery Store Customer Experience Manager</t>
     </r>
     <r>
       <rPr>
@@ -383,13 +410,20 @@
     </r>
   </si>
   <si>
+    <t>jobphotos/gscem.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lecture hall like?
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times"/>
       </rPr>
-      <t>How much are the groceries and what method of payment do the clients use?</t>
+      <t>What class are the students in and what is the day’s lecture about?</t>
     </r>
     <r>
       <rPr>
@@ -402,19 +436,13 @@
     </r>
   </si>
   <si>
-    <t>How long does it take for the cashier to scan all of the customers’ groceries?</t>
-  </si>
-  <si>
-    <t>What type of grocery bags do the clients use?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Grocery Store Customer Experience Manager</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is something taught in lecture?</t>
     </r>
     <r>
       <rPr>
@@ -427,20 +455,38 @@
     </r>
   </si>
   <si>
-    <t>jobphotos/gscem.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the lecture hall like?
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What class are the students in and what is the day’s lecture about?</t>
+    <t>What is the next assessment/assignment in class and when is it scheduled/due?</t>
+  </si>
+  <si>
+    <t>Are the students paying attention?</t>
+  </si>
+  <si>
+    <t>Are the desks comfortable?</t>
+  </si>
+  <si>
+    <t>Dean of Academic Studies</t>
+  </si>
+  <si>
+    <t>jobphotos/dean.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>For how long has the initiator of the breakup been thinking about breaking up with his/her partner?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>What is the initial reason stated by the initiator for why he/she is breaking up?</t>
     </r>
     <r>
       <rPr>
@@ -453,89 +499,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>What is something taught in lecture?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>When is the next assessment in the class?</t>
-  </si>
-  <si>
-    <t>Are the students paying attention?</t>
-  </si>
-  <si>
-    <t>Are the desks comfortable?</t>
-  </si>
-  <si>
-    <t>Dean of Academic Studies</t>
-  </si>
-  <si>
-    <t>jobphotos/dean.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>How does the person who is initiating the breakup feel before they do it?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>Why does the initiator want to break up?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">How does the person being broken up with respond?
-</t>
-  </si>
-  <si>
-    <t>Do the partners leave on good terms?</t>
+    <t>Does the person who is being broken up with want to break up and what’s the reason stated by the person being broken up with that he/she does or does not want to break up?</t>
+  </si>
+  <si>
+    <t>What objects do either partner want back?</t>
   </si>
   <si>
     <t>Does the person being broken up with expect that this is coming?</t>
   </si>
   <si>
-    <t>For how long has the initiator been wanting to break up?</t>
+    <t>Who witnesses the breakup?</t>
   </si>
   <si>
     <r>
@@ -567,16 +540,21 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -590,27 +568,17 @@
       <name val="Times"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="8"/>
       <name val="Times"/>
     </font>
@@ -630,7 +598,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -769,101 +743,86 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -887,6 +846,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -903,10 +863,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -935,14 +895,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -1083,11 +1043,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1096,34 +1059,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1373,10 +1336,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1667,7 +1630,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1694,7 +1657,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1954,10 +1917,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.0156" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.35156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.35156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.35156" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.35156" style="1" customWidth="1"/>
     <col min="13" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2028,22 +1999,22 @@
       <c r="B3" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="D3" t="s" s="13">
+      <c r="D3" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="E3" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="11">
+      <c r="F3" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="11">
+      <c r="G3" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="11">
+      <c r="H3" t="s" s="13">
         <v>23</v>
       </c>
       <c r="I3" s="14"/>
@@ -2052,28 +2023,28 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" ht="35.35" customHeight="1">
-      <c r="A4" t="s" s="16">
+      <c r="A4" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="18">
+      <c r="B4" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="E4" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G4" t="s" s="13">
         <v>30</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" t="s" s="13">
         <v>31</v>
       </c>
       <c r="I4" s="14"/>
@@ -2082,28 +2053,28 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" ht="36.35" customHeight="1">
-      <c r="A5" t="s" s="19">
+      <c r="A5" t="s" s="17">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="21">
+      <c r="B5" t="s" s="18">
         <v>33</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" t="s" s="13">
         <v>36</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" t="s" s="13">
         <v>37</v>
       </c>
-      <c r="G5" t="s" s="11">
+      <c r="G5" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="11">
+      <c r="H5" t="s" s="13">
         <v>39</v>
       </c>
       <c r="I5" s="14"/>
@@ -2112,28 +2083,28 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" ht="35.35" customHeight="1">
-      <c r="A6" t="s" s="19">
+      <c r="A6" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="18">
+      <c r="B6" t="s" s="16">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="22">
+      <c r="D6" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="E6" t="s" s="11">
+      <c r="E6" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="F6" t="s" s="11">
+      <c r="F6" t="s" s="13">
         <v>45</v>
       </c>
-      <c r="G6" t="s" s="11">
+      <c r="G6" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="H6" t="s" s="11">
+      <c r="H6" t="s" s="13">
         <v>47</v>
       </c>
       <c r="I6" s="14"/>
@@ -2142,28 +2113,28 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" ht="45.35" customHeight="1">
-      <c r="A7" t="s" s="24">
+      <c r="A7" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="B7" t="s" s="21">
+      <c r="B7" t="s" s="18">
         <v>49</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="11">
+      <c r="F7" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="G7" t="s" s="12">
+      <c r="G7" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="H7" t="s" s="11">
+      <c r="H7" t="s" s="13">
         <v>55</v>
       </c>
       <c r="I7" s="14"/>
@@ -2172,28 +2143,28 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" ht="36.35" customHeight="1">
-      <c r="A8" t="s" s="24">
+      <c r="A8" t="s" s="20">
         <v>56</v>
       </c>
-      <c r="B8" t="s" s="26">
+      <c r="B8" t="s" s="21">
         <v>57</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="D8" t="s" s="27">
+      <c r="D8" t="s" s="22">
         <v>59</v>
       </c>
-      <c r="E8" t="s" s="11">
+      <c r="E8" t="s" s="13">
         <v>60</v>
       </c>
-      <c r="F8" t="s" s="11">
+      <c r="F8" t="s" s="13">
         <v>61</v>
       </c>
-      <c r="G8" t="s" s="11">
+      <c r="G8" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="H8" t="s" s="11">
+      <c r="H8" t="s" s="13">
         <v>63</v>
       </c>
       <c r="I8" s="14"/>
@@ -2202,28 +2173,28 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" ht="45.35" customHeight="1">
-      <c r="A9" t="s" s="19">
+      <c r="A9" t="s" s="17">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B9" t="s" s="16">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="28">
+      <c r="C9" t="s" s="23">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="29">
+      <c r="D9" t="s" s="24">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="11">
+      <c r="E9" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="11">
+      <c r="F9" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="11">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="11">
+      <c r="H9" t="s" s="13">
         <v>71</v>
       </c>
       <c r="I9" s="14"/>
@@ -2232,8 +2203,8 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2246,8 +2217,8 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2260,8 +2231,8 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2274,8 +2245,8 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -2288,8 +2259,8 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2302,8 +2273,8 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2316,8 +2287,8 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2330,8 +2301,8 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2344,8 +2315,8 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -2358,8 +2329,8 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2372,8 +2343,8 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -2386,8 +2357,8 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -2400,8 +2371,8 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2417,7 +2388,7 @@
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>